--- a/SWiMS_Codebook_v4.xlsx
+++ b/SWiMS_Codebook_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/telmer/switchdrive/Other Stuff/Actionuni/SWiMS/SWiMS_analyses/SWiMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD88BC4B-5F9F-AD40-9396-3E7D4420B456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4F52F3-75B2-C449-A28D-65857C85AFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="542">
   <si>
     <t>Nr</t>
   </si>
@@ -1586,6 +1586,66 @@
   </si>
   <si>
     <t>multibar</t>
+  </si>
+  <si>
+    <t>aggregation</t>
+  </si>
+  <si>
+    <t>qrp_pressure_mh</t>
+  </si>
+  <si>
+    <t>stress_system</t>
+  </si>
+  <si>
+    <t>stress_supervisor</t>
+  </si>
+  <si>
+    <t>stress_colleagues</t>
+  </si>
+  <si>
+    <t>stress_selfManagement</t>
+  </si>
+  <si>
+    <t>stress_private</t>
+  </si>
+  <si>
+    <t>&gt;= moderately --&gt; yes</t>
+  </si>
+  <si>
+    <t>discrimination_type</t>
+  </si>
+  <si>
+    <t>job_satisfaction</t>
+  </si>
+  <si>
+    <t>mental_health</t>
+  </si>
+  <si>
+    <t>from DASS scale</t>
+  </si>
+  <si>
+    <t>facet_wrap with items above</t>
+  </si>
+  <si>
+    <t>burnout</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>carework</t>
+  </si>
+  <si>
+    <t>Institutional_Key_Cat</t>
+  </si>
+  <si>
+    <t>National_Key_Cat</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>TODO TE variable kreieren</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1637,11 +1697,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1933,13 +2007,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L224"/>
+  <dimension ref="A1:N225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1953,11 +2027,12 @@
     <col min="7" max="7" width="48.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="2"/>
     <col min="9" max="9" width="47" style="2" customWidth="1"/>
-    <col min="10" max="11" width="12.33203125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="10" max="13" width="12.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="39.1640625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1992,10 +2067,16 @@
         <v>520</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2006,7 +2087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2020,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2034,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2048,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2062,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2076,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2090,7 +2171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2104,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2118,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2132,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2146,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2160,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2186,7 +2267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2209,7 +2290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2232,7 +2313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2261,7 +2342,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2281,7 +2362,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2310,7 +2391,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2336,7 +2417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2362,7 +2443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2388,7 +2469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2414,11 +2495,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22.5</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>519</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2427,12 +2508,21 @@
       <c r="J24" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="K24" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2456,8 +2546,14 @@
       <c r="J25" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="K25" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2485,8 +2581,14 @@
       <c r="J26" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K26" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2514,8 +2616,11 @@
       <c r="J27" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K27" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2543,8 +2648,11 @@
       <c r="J28" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K28" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2560,8 +2668,11 @@
       <c r="J29" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K29" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="J30" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="K30" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="96" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2618,8 +2732,17 @@
       <c r="J31" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K31" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2647,8 +2770,14 @@
       <c r="J32" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="K32" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2667,8 +2796,11 @@
       <c r="J33" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K33" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2696,8 +2828,11 @@
       <c r="J34" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K34" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2725,8 +2860,11 @@
       <c r="J35" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K35" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2752,7 +2890,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2772,7 +2910,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2792,7 +2930,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2817,8 +2955,14 @@
       <c r="I39" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="J39" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2844,7 +2988,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2869,11 +3013,8 @@
       <c r="I41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2898,11 +3039,8 @@
       <c r="I42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2927,54 +3065,45 @@
       <c r="I43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="L44" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>87</v>
@@ -2983,47 +3112,47 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>136</v>
@@ -3035,21 +3164,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>136</v>
@@ -3063,19 +3192,19 @@
     </row>
     <row r="49" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>136</v>
@@ -3089,19 +3218,19 @@
     </row>
     <row r="50" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>136</v>
@@ -3113,21 +3242,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>136</v>
@@ -3139,21 +3268,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>136</v>
@@ -3165,102 +3294,96 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>157</v>
@@ -3280,19 +3403,19 @@
     </row>
     <row r="57" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>157</v>
@@ -3312,19 +3435,19 @@
     </row>
     <row r="58" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>157</v>
@@ -3344,19 +3467,19 @@
     </row>
     <row r="59" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>157</v>
@@ -3376,19 +3499,19 @@
     </row>
     <row r="60" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>157</v>
@@ -3408,19 +3531,19 @@
     </row>
     <row r="61" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>157</v>
@@ -3440,19 +3563,19 @@
     </row>
     <row r="62" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>157</v>
@@ -3472,19 +3595,19 @@
     </row>
     <row r="63" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>157</v>
@@ -3502,24 +3625,24 @@
         <v>521</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>43</v>
@@ -3528,7 +3651,7 @@
         <v>158</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>32</v>
+        <v>511</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>521</v>
@@ -3536,19 +3659,19 @@
     </row>
     <row r="65" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>177</v>
@@ -3568,19 +3691,19 @@
     </row>
     <row r="66" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>177</v>
@@ -3600,19 +3723,19 @@
     </row>
     <row r="67" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>177</v>
@@ -3632,19 +3755,19 @@
     </row>
     <row r="68" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>177</v>
@@ -3664,19 +3787,19 @@
     </row>
     <row r="69" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>177</v>
@@ -3696,19 +3819,19 @@
     </row>
     <row r="70" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>177</v>
@@ -3726,76 +3849,79 @@
         <v>521</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>196</v>
@@ -3809,22 +3935,25 @@
       <c r="J73" s="2" t="s">
         <v>513</v>
       </c>
+      <c r="K73" s="2" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="74" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>196</v>
@@ -3838,51 +3967,57 @@
       <c r="J74" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="K74" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>201</v>
+        <v>513</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>203</v>
@@ -3896,22 +4031,25 @@
       <c r="J76" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="K76" s="2" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="77" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>203</v>
@@ -3925,22 +4063,25 @@
       <c r="J77" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="K77" s="2" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="78" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>203</v>
@@ -3954,22 +4095,25 @@
       <c r="J78" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="K78" s="2" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="79" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>203</v>
@@ -3983,22 +4127,25 @@
       <c r="J79" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="K79" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>203</v>
@@ -4012,22 +4159,25 @@
       <c r="J80" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>203</v>
@@ -4041,22 +4191,25 @@
       <c r="J81" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K81" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>203</v>
@@ -4070,77 +4223,89 @@
       <c r="J82" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K82" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
+        <v>80</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="D84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+      <c r="K84" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="D85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>226</v>
@@ -4151,22 +4316,28 @@
       <c r="I85" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J85" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>226</v>
@@ -4177,22 +4348,28 @@
       <c r="I86" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J86" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>226</v>
@@ -4203,22 +4380,28 @@
       <c r="I87" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J87" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>226</v>
@@ -4229,22 +4412,28 @@
       <c r="I88" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J88" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>226</v>
@@ -4255,22 +4444,28 @@
       <c r="I89" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J89" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>226</v>
@@ -4281,22 +4476,28 @@
       <c r="I90" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J90" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>226</v>
@@ -4307,22 +4508,28 @@
       <c r="I91" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J91" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>226</v>
@@ -4333,22 +4540,28 @@
       <c r="I92" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J92" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>226</v>
@@ -4359,22 +4572,28 @@
       <c r="I93" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J93" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>226</v>
@@ -4385,22 +4604,28 @@
       <c r="I94" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J94" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>226</v>
@@ -4411,22 +4636,28 @@
       <c r="I95" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J95" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>226</v>
@@ -4437,22 +4668,28 @@
       <c r="I96" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J96" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>226</v>
@@ -4463,77 +4700,95 @@
       <c r="I97" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J97" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>26</v>
@@ -4541,22 +4796,28 @@
       <c r="I100" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="J100" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>260</v>
@@ -4568,21 +4829,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>260</v>
@@ -4594,21 +4855,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>260</v>
@@ -4620,18 +4881,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>254</v>
@@ -4640,53 +4901,53 @@
         <v>260</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>260</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>260</v>
@@ -4698,50 +4959,47 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
+        <v>104</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="D108" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
-        <v>106</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>273</v>
@@ -4755,22 +5013,25 @@
       <c r="J108" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K108" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>273</v>
@@ -4784,22 +5045,25 @@
       <c r="J109" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K109" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>273</v>
@@ -4813,22 +5077,25 @@
       <c r="J110" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K110" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>273</v>
@@ -4842,22 +5109,25 @@
       <c r="J111" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K111" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>273</v>
@@ -4871,22 +5141,25 @@
       <c r="J112" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K112" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>273</v>
@@ -4900,22 +5173,25 @@
       <c r="J113" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K113" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>273</v>
@@ -4929,22 +5205,25 @@
       <c r="J114" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K114" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>273</v>
@@ -4958,22 +5237,25 @@
       <c r="J115" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K115" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>273</v>
@@ -4987,22 +5269,25 @@
       <c r="J116" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K116" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>273</v>
@@ -5016,22 +5301,25 @@
       <c r="J117" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K117" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>273</v>
@@ -5045,22 +5333,25 @@
       <c r="J118" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="K118" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>273</v>
@@ -5074,51 +5365,57 @@
       <c r="J119" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K119" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
+        <v>117</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E120" s="2" t="s">
+      <c r="D121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>119</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>301</v>
@@ -5132,22 +5429,25 @@
       <c r="J121" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K121" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>301</v>
@@ -5161,22 +5461,25 @@
       <c r="J122" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K122" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>301</v>
@@ -5190,22 +5493,25 @@
       <c r="J123" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K123" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>301</v>
@@ -5219,22 +5525,25 @@
       <c r="J124" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K124" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>301</v>
@@ -5248,22 +5557,25 @@
       <c r="J125" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K125" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>301</v>
@@ -5277,22 +5589,25 @@
       <c r="J126" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K126" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>301</v>
@@ -5306,22 +5621,25 @@
       <c r="J127" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K127" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>301</v>
@@ -5335,22 +5653,25 @@
       <c r="J128" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K128" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>301</v>
@@ -5364,19 +5685,22 @@
       <c r="J129" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K129" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>254</v>
@@ -5385,140 +5709,161 @@
         <v>301</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K130" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>301</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="K131" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
+        <v>129</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
         <v>130</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="D133" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="G133" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
+      <c r="J133" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="D134" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J134" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K134" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
+    <row r="135" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E134" s="2" t="s">
+      <c r="D135" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>133</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>334</v>
@@ -5529,22 +5874,31 @@
       <c r="I135" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J135" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>334</v>
@@ -5555,22 +5909,28 @@
       <c r="I136" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J136" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>334</v>
@@ -5581,22 +5941,28 @@
       <c r="I137" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J137" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>334</v>
@@ -5607,22 +5973,28 @@
       <c r="I138" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J138" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>334</v>
@@ -5633,22 +6005,28 @@
       <c r="I139" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J139" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>334</v>
@@ -5659,22 +6037,28 @@
       <c r="I140" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J140" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>334</v>
@@ -5685,22 +6069,28 @@
       <c r="I141" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J141" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>334</v>
@@ -5711,22 +6101,28 @@
       <c r="I142" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J142" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>334</v>
@@ -5737,22 +6133,28 @@
       <c r="I143" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J143" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>334</v>
@@ -5763,22 +6165,28 @@
       <c r="I144" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J144" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>334</v>
@@ -5789,22 +6197,28 @@
       <c r="I145" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J145" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>334</v>
@@ -5815,22 +6229,28 @@
       <c r="I146" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J146" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>334</v>
@@ -5841,22 +6261,28 @@
       <c r="I147" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J147" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>334</v>
@@ -5867,22 +6293,28 @@
       <c r="I148" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J148" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>334</v>
@@ -5893,22 +6325,28 @@
       <c r="I149" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J149" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>334</v>
@@ -5919,22 +6357,28 @@
       <c r="I150" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J150" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>334</v>
@@ -5945,22 +6389,28 @@
       <c r="I151" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J151" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>334</v>
@@ -5971,22 +6421,28 @@
       <c r="I152" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J152" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>334</v>
@@ -5997,22 +6453,28 @@
       <c r="I153" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J153" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>334</v>
@@ -6023,22 +6485,28 @@
       <c r="I154" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J154" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>334</v>
@@ -6049,22 +6517,28 @@
       <c r="I155" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J155" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>334</v>
@@ -6075,22 +6549,28 @@
       <c r="I156" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J156" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>334</v>
@@ -6101,22 +6581,28 @@
       <c r="I157" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J157" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>254</v>
+        <v>381</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>334</v>
@@ -6127,19 +6613,25 @@
       <c r="I158" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J158" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>254</v>
@@ -6147,77 +6639,80 @@
       <c r="G159" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="H159" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
+        <v>157</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
         <v>158</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C161" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E160" s="2" t="s">
+      <c r="D161" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="G161" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H160" s="2" t="s">
+      <c r="H161" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="I160" s="2" t="s">
+      <c r="I161" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="J160" s="2" t="s">
+      <c r="J161" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="K161" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
+    <row r="162" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
         <v>159</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E161" s="2" t="s">
+      <c r="D162" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
-        <v>160</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>391</v>
@@ -6228,22 +6723,31 @@
       <c r="I162" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="J162" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="N162" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>391</v>
@@ -6254,22 +6758,28 @@
       <c r="I163" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="J163" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>391</v>
@@ -6280,22 +6790,28 @@
       <c r="I164" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="J164" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>391</v>
@@ -6306,22 +6822,28 @@
       <c r="I165" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="J165" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>391</v>
@@ -6332,22 +6854,28 @@
       <c r="I166" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="J166" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>391</v>
@@ -6358,126 +6886,150 @@
       <c r="I167" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J167" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
+        <v>165</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
         <v>165.5</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E169" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="G169" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="J168" s="2" t="s">
+      <c r="J169" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="N169" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>166</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="K170" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
-        <v>166</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J169" s="2" t="s">
+    <row r="171" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>167</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="K171" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A170" s="2">
-        <v>167</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A171" s="2">
+    <row r="172" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
         <v>168</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E171" s="2" t="s">
+      <c r="D172" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="G172" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
-        <v>169</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>387</v>
@@ -6485,82 +7037,106 @@
       <c r="I172" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="J172" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
+        <v>169</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
         <v>170</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
-        <v>171</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>422</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>422</v>
       </c>
       <c r="I174" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>171</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="2">
+      <c r="G175" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
         <v>172</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="F175" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
-        <v>173</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="F176" s="2">
         <v>1</v>
@@ -6568,13 +7144,13 @@
     </row>
     <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F177" s="2">
         <v>1</v>
@@ -6582,13 +7158,13 @@
     </row>
     <row r="178" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F178" s="2">
         <v>1</v>
@@ -6596,13 +7172,13 @@
     </row>
     <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F179" s="2">
         <v>1</v>
@@ -6610,13 +7186,13 @@
     </row>
     <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F180" s="2">
         <v>1</v>
@@ -6624,13 +7200,13 @@
     </row>
     <row r="181" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F181" s="2">
         <v>1</v>
@@ -6638,13 +7214,13 @@
     </row>
     <row r="182" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F182" s="2">
         <v>1</v>
@@ -6652,13 +7228,13 @@
     </row>
     <row r="183" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F183" s="2">
         <v>1</v>
@@ -6666,13 +7242,13 @@
     </row>
     <row r="184" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F184" s="2">
         <v>1</v>
@@ -6680,13 +7256,13 @@
     </row>
     <row r="185" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F185" s="2">
         <v>1</v>
@@ -6694,13 +7270,13 @@
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F186" s="2">
         <v>1</v>
@@ -6708,13 +7284,13 @@
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F187" s="2">
         <v>1</v>
@@ -6722,13 +7298,13 @@
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F188" s="2">
         <v>1</v>
@@ -6736,13 +7312,13 @@
     </row>
     <row r="189" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F189" s="2">
         <v>1</v>
@@ -6750,13 +7326,13 @@
     </row>
     <row r="190" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F190" s="2">
         <v>1</v>
@@ -6764,52 +7340,49 @@
     </row>
     <row r="191" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
+      </c>
+      <c r="F191" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F193" s="2">
-        <v>1</v>
+        <v>445</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F194" s="2">
         <v>1</v>
@@ -6817,16 +7390,16 @@
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F195" s="2">
         <v>1</v>
@@ -6834,16 +7407,16 @@
     </row>
     <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F196" s="2">
         <v>1</v>
@@ -6851,16 +7424,16 @@
     </row>
     <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F197" s="2">
         <v>1</v>
@@ -6868,16 +7441,16 @@
     </row>
     <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F198" s="2">
         <v>1</v>
@@ -6885,16 +7458,16 @@
     </row>
     <row r="199" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F199" s="2">
         <v>1</v>
@@ -6902,16 +7475,16 @@
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F200" s="2">
         <v>1</v>
@@ -6919,16 +7492,16 @@
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F201" s="2">
         <v>1</v>
@@ -6936,16 +7509,16 @@
     </row>
     <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F202" s="2">
         <v>1</v>
@@ -6953,16 +7526,16 @@
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F203" s="2">
         <v>1</v>
@@ -6970,16 +7543,16 @@
     </row>
     <row r="204" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F204" s="2">
         <v>1</v>
@@ -6987,16 +7560,16 @@
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F205" s="2">
         <v>1</v>
@@ -7004,16 +7577,16 @@
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F206" s="2">
         <v>1</v>
@@ -7021,16 +7594,16 @@
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F207" s="2">
         <v>1</v>
@@ -7038,16 +7611,16 @@
     </row>
     <row r="208" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F208" s="2">
         <v>1</v>
@@ -7055,16 +7628,16 @@
     </row>
     <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F209" s="2">
         <v>1</v>
@@ -7072,16 +7645,16 @@
     </row>
     <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F210" s="2">
         <v>1</v>
@@ -7089,16 +7662,16 @@
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F211" s="2">
         <v>1</v>
@@ -7106,16 +7679,16 @@
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F212" s="2">
         <v>1</v>
@@ -7123,16 +7696,16 @@
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F213" s="2">
         <v>1</v>
@@ -7140,16 +7713,16 @@
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F214" s="2">
         <v>1</v>
@@ -7157,16 +7730,16 @@
     </row>
     <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F215" s="2">
         <v>1</v>
@@ -7174,16 +7747,16 @@
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F216" s="2">
         <v>1</v>
@@ -7191,16 +7764,16 @@
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F217" s="2">
         <v>1</v>
@@ -7208,16 +7781,16 @@
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F218" s="2">
         <v>1</v>
@@ -7225,16 +7798,16 @@
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F219" s="2">
         <v>1</v>
@@ -7242,16 +7815,16 @@
     </row>
     <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F220" s="2">
         <v>1</v>
@@ -7259,16 +7832,16 @@
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F221" s="2">
         <v>1</v>
@@ -7276,16 +7849,16 @@
     </row>
     <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F222" s="2">
         <v>1</v>
@@ -7293,16 +7866,16 @@
     </row>
     <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F223" s="2">
         <v>1</v>
@@ -7310,22 +7883,44 @@
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F224" s="2">
         <v>1</v>
       </c>
     </row>
+    <row r="225" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>221</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F225" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="L1:M1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
